--- a/sample_shipping_data.xlsx
+++ b/sample_shipping_data.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prabal\work\canopi\hiring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Spring Projects\Workspace - 1\AssignmentForCanopi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37E1A3A-3DF5-464C-8159-D52D7B55C033}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA866B7-E301-4696-B353-969AB30CA403}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8FCF85DF-539A-4C90-810B-9DF28A61C33C}"/>
+    <workbookView xWindow="3240" yWindow="3240" windowWidth="17280" windowHeight="8964" xr2:uid="{8FCF85DF-539A-4C90-810B-9DF28A61C33C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1344,16 +1344,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C407A9B-A75D-4AE8-A5B0-231F1EE9F0CF}">
   <dimension ref="A1:D500"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.28515625" customWidth="1"/>
-    <col min="2" max="3" width="20.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
+    <col min="2" max="3" width="20.5546875" customWidth="1"/>
     <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>313</v>
       </c>
@@ -1367,7 +1369,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1381,7 +1383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1395,7 +1397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -1409,7 +1411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>9</v>
       </c>
@@ -1423,7 +1425,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1437,7 +1439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1451,7 +1453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>13</v>
       </c>
@@ -1465,7 +1467,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1479,7 +1481,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1493,7 +1495,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -1507,7 +1509,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>21</v>
       </c>
@@ -1521,7 +1523,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>22</v>
       </c>
@@ -1535,7 +1537,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>23</v>
       </c>
@@ -1549,7 +1551,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>25</v>
       </c>
@@ -1563,7 +1565,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>25</v>
       </c>
@@ -1577,7 +1579,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>29</v>
       </c>
@@ -1591,7 +1593,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1605,7 +1607,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>31</v>
       </c>
@@ -1619,7 +1621,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>25</v>
       </c>
@@ -1633,7 +1635,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1647,7 +1649,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1661,7 +1663,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>25</v>
       </c>
@@ -1675,7 +1677,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>33</v>
       </c>
@@ -1689,7 +1691,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -1703,7 +1705,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>35</v>
       </c>
@@ -1717,7 +1719,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>36</v>
       </c>
@@ -1731,7 +1733,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -1745,7 +1747,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>38</v>
       </c>
@@ -1759,7 +1761,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>39</v>
       </c>
@@ -1773,7 +1775,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>41</v>
       </c>
@@ -1787,7 +1789,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1801,7 +1803,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -1815,7 +1817,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>43</v>
       </c>
@@ -1829,7 +1831,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>44</v>
       </c>
@@ -1843,7 +1845,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -1857,7 +1859,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -1871,7 +1873,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>47</v>
       </c>
@@ -1885,7 +1887,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>48</v>
       </c>
@@ -1899,7 +1901,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>49</v>
       </c>
@@ -1913,7 +1915,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -1927,7 +1929,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -1941,7 +1943,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>52</v>
       </c>
@@ -1955,7 +1957,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>53</v>
       </c>
@@ -1969,7 +1971,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>54</v>
       </c>
@@ -1983,7 +1985,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -1997,7 +1999,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>56</v>
       </c>
@@ -2011,7 +2013,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>57</v>
       </c>
@@ -2025,7 +2027,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -2039,7 +2041,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>60</v>
       </c>
@@ -2053,7 +2055,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>61</v>
       </c>
@@ -2067,7 +2069,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>62</v>
       </c>
@@ -2081,7 +2083,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>63</v>
       </c>
@@ -2095,7 +2097,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>64</v>
       </c>
@@ -2109,7 +2111,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>65</v>
       </c>
@@ -2123,7 +2125,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>66</v>
       </c>
@@ -2137,7 +2139,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>67</v>
       </c>
@@ -2151,7 +2153,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>68</v>
       </c>
@@ -2165,7 +2167,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>69</v>
       </c>
@@ -2179,7 +2181,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>70</v>
       </c>
@@ -2193,7 +2195,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>71</v>
       </c>
@@ -2207,7 +2209,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>72</v>
       </c>
@@ -2221,7 +2223,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>73</v>
       </c>
@@ -2235,7 +2237,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>74</v>
       </c>
@@ -2249,7 +2251,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>75</v>
       </c>
@@ -2263,7 +2265,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>76</v>
       </c>
@@ -2277,7 +2279,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>25</v>
       </c>
@@ -2291,7 +2293,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>25</v>
       </c>
@@ -2305,7 +2307,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>33</v>
       </c>
@@ -2319,7 +2321,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>78</v>
       </c>
@@ -2333,7 +2335,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>79</v>
       </c>
@@ -2347,7 +2349,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>79</v>
       </c>
@@ -2361,7 +2363,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>82</v>
       </c>
@@ -2375,7 +2377,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>84</v>
       </c>
@@ -2389,7 +2391,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>85</v>
       </c>
@@ -2403,7 +2405,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>86</v>
       </c>
@@ -2417,7 +2419,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>88</v>
       </c>
@@ -2431,7 +2433,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>89</v>
       </c>
@@ -2445,7 +2447,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>91</v>
       </c>
@@ -2459,7 +2461,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>91</v>
       </c>
@@ -2473,7 +2475,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>93</v>
       </c>
@@ -2487,7 +2489,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>93</v>
       </c>
@@ -2501,7 +2503,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>95</v>
       </c>
@@ -2515,7 +2517,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>97</v>
       </c>
@@ -2529,7 +2531,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>97</v>
       </c>
@@ -2543,7 +2545,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>98</v>
       </c>
@@ -2557,7 +2559,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>91</v>
       </c>
@@ -2571,7 +2573,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>97</v>
       </c>
@@ -2585,7 +2587,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>91</v>
       </c>
@@ -2599,7 +2601,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>91</v>
       </c>
@@ -2613,7 +2615,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>91</v>
       </c>
@@ -2627,7 +2629,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>11</v>
       </c>
@@ -2641,7 +2643,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>17</v>
       </c>
@@ -2655,7 +2657,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>103</v>
       </c>
@@ -2669,7 +2671,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>91</v>
       </c>
@@ -2683,7 +2685,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>91</v>
       </c>
@@ -2697,7 +2699,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>91</v>
       </c>
@@ -2711,7 +2713,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>104</v>
       </c>
@@ -2725,7 +2727,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>107</v>
       </c>
@@ -2739,7 +2741,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>109</v>
       </c>
@@ -2753,7 +2755,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>110</v>
       </c>
@@ -2767,7 +2769,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>97</v>
       </c>
@@ -2781,7 +2783,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>111</v>
       </c>
@@ -2795,7 +2797,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>78</v>
       </c>
@@ -2809,7 +2811,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>113</v>
       </c>
@@ -2823,7 +2825,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>115</v>
       </c>
@@ -2837,7 +2839,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>93</v>
       </c>
@@ -2851,7 +2853,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>117</v>
       </c>
@@ -2865,7 +2867,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>95</v>
       </c>
@@ -2879,7 +2881,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>25</v>
       </c>
@@ -2893,7 +2895,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>25</v>
       </c>
@@ -2907,7 +2909,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>120</v>
       </c>
@@ -2921,7 +2923,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>97</v>
       </c>
@@ -2935,7 +2937,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>25</v>
       </c>
@@ -2949,7 +2951,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>121</v>
       </c>
@@ -2963,7 +2965,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>25</v>
       </c>
@@ -2977,7 +2979,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>122</v>
       </c>
@@ -2991,7 +2993,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>124</v>
       </c>
@@ -3005,7 +3007,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>93</v>
       </c>
@@ -3019,7 +3021,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>97</v>
       </c>
@@ -3033,7 +3035,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>97</v>
       </c>
@@ -3047,7 +3049,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>130</v>
       </c>
@@ -3061,7 +3063,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>97</v>
       </c>
@@ -3075,7 +3077,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>25</v>
       </c>
@@ -3089,7 +3091,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>25</v>
       </c>
@@ -3103,7 +3105,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>93</v>
       </c>
@@ -3117,7 +3119,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>117</v>
       </c>
@@ -3131,7 +3133,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>134</v>
       </c>
@@ -3145,7 +3147,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>137</v>
       </c>
@@ -3159,7 +3161,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>138</v>
       </c>
@@ -3173,7 +3175,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>139</v>
       </c>
@@ -3187,7 +3189,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>141</v>
       </c>
@@ -3201,7 +3203,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>93</v>
       </c>
@@ -3215,7 +3217,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>141</v>
       </c>
@@ -3229,7 +3231,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>145</v>
       </c>
@@ -3243,7 +3245,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>145</v>
       </c>
@@ -3257,7 +3259,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>145</v>
       </c>
@@ -3271,7 +3273,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>146</v>
       </c>
@@ -3285,7 +3287,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>147</v>
       </c>
@@ -3299,7 +3301,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>145</v>
       </c>
@@ -3313,7 +3315,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>145</v>
       </c>
@@ -3327,7 +3329,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>145</v>
       </c>
@@ -3341,7 +3343,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>141</v>
       </c>
@@ -3355,7 +3357,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>145</v>
       </c>
@@ -3369,7 +3371,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>145</v>
       </c>
@@ -3383,7 +3385,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>55</v>
       </c>
@@ -3397,7 +3399,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>145</v>
       </c>
@@ -3411,7 +3413,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>25</v>
       </c>
@@ -3425,7 +3427,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>145</v>
       </c>
@@ -3439,7 +3441,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>25</v>
       </c>
@@ -3453,7 +3455,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>145</v>
       </c>
@@ -3467,7 +3469,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>148</v>
       </c>
@@ -3481,7 +3483,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>149</v>
       </c>
@@ -3495,7 +3497,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>3</v>
       </c>
@@ -3509,7 +3511,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>145</v>
       </c>
@@ -3523,7 +3525,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>145</v>
       </c>
@@ -3537,7 +3539,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>145</v>
       </c>
@@ -3551,7 +3553,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>145</v>
       </c>
@@ -3565,7 +3567,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>145</v>
       </c>
@@ -3579,7 +3581,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>145</v>
       </c>
@@ -3593,7 +3595,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>145</v>
       </c>
@@ -3607,7 +3609,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>145</v>
       </c>
@@ -3621,7 +3623,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>145</v>
       </c>
@@ -3635,7 +3637,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>145</v>
       </c>
@@ -3649,7 +3651,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>145</v>
       </c>
@@ -3663,7 +3665,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>141</v>
       </c>
@@ -3677,7 +3679,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>141</v>
       </c>
@@ -3691,7 +3693,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>141</v>
       </c>
@@ -3705,7 +3707,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>141</v>
       </c>
@@ -3719,7 +3721,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>141</v>
       </c>
@@ -3733,7 +3735,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>141</v>
       </c>
@@ -3747,7 +3749,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>93</v>
       </c>
@@ -3761,7 +3763,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>150</v>
       </c>
@@ -3775,7 +3777,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>151</v>
       </c>
@@ -3789,7 +3791,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>152</v>
       </c>
@@ -3803,7 +3805,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>153</v>
       </c>
@@ -3817,7 +3819,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>154</v>
       </c>
@@ -3831,7 +3833,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>155</v>
       </c>
@@ -3845,7 +3847,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>78</v>
       </c>
@@ -3859,7 +3861,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>156</v>
       </c>
@@ -3873,7 +3875,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>141</v>
       </c>
@@ -3887,7 +3889,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>141</v>
       </c>
@@ -3901,7 +3903,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>141</v>
       </c>
@@ -3915,7 +3917,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>145</v>
       </c>
@@ -3929,7 +3931,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>145</v>
       </c>
@@ -3943,7 +3945,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>145</v>
       </c>
@@ -3957,7 +3959,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>25</v>
       </c>
@@ -3971,7 +3973,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>141</v>
       </c>
@@ -3985,7 +3987,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>141</v>
       </c>
@@ -3999,7 +4001,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>25</v>
       </c>
@@ -4013,7 +4015,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>141</v>
       </c>
@@ -4027,7 +4029,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>157</v>
       </c>
@@ -4041,7 +4043,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>158</v>
       </c>
@@ -4055,7 +4057,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>159</v>
       </c>
@@ -4069,7 +4071,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>160</v>
       </c>
@@ -4083,7 +4085,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>161</v>
       </c>
@@ -4097,7 +4099,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>141</v>
       </c>
@@ -4111,7 +4113,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>141</v>
       </c>
@@ -4125,7 +4127,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>141</v>
       </c>
@@ -4139,7 +4141,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>141</v>
       </c>
@@ -4153,7 +4155,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>141</v>
       </c>
@@ -4167,7 +4169,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>145</v>
       </c>
@@ -4181,7 +4183,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>54</v>
       </c>
@@ -4195,7 +4197,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>145</v>
       </c>
@@ -4209,7 +4211,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>141</v>
       </c>
@@ -4223,7 +4225,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>145</v>
       </c>
@@ -4237,7 +4239,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>141</v>
       </c>
@@ -4251,7 +4253,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>25</v>
       </c>
@@ -4265,7 +4267,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>25</v>
       </c>
@@ -4279,7 +4281,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>145</v>
       </c>
@@ -4293,7 +4295,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>141</v>
       </c>
@@ -4307,7 +4309,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>141</v>
       </c>
@@ -4321,7 +4323,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>141</v>
       </c>
@@ -4335,7 +4337,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>145</v>
       </c>
@@ -4349,7 +4351,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>145</v>
       </c>
@@ -4363,7 +4365,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>141</v>
       </c>
@@ -4377,7 +4379,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>145</v>
       </c>
@@ -4391,7 +4393,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>141</v>
       </c>
@@ -4405,7 +4407,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>165</v>
       </c>
@@ -4419,7 +4421,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>141</v>
       </c>
@@ -4433,7 +4435,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>167</v>
       </c>
@@ -4447,7 +4449,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>169</v>
       </c>
@@ -4461,7 +4463,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>170</v>
       </c>
@@ -4475,7 +4477,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>172</v>
       </c>
@@ -4489,7 +4491,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>141</v>
       </c>
@@ -4503,7 +4505,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>145</v>
       </c>
@@ -4517,7 +4519,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>174</v>
       </c>
@@ -4531,7 +4533,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>145</v>
       </c>
@@ -4545,7 +4547,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>141</v>
       </c>
@@ -4559,7 +4561,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>141</v>
       </c>
@@ -4573,7 +4575,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>141</v>
       </c>
@@ -4587,7 +4589,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>141</v>
       </c>
@@ -4601,7 +4603,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>93</v>
       </c>
@@ -4615,7 +4617,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>141</v>
       </c>
@@ -4629,7 +4631,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>141</v>
       </c>
@@ -4643,7 +4645,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>141</v>
       </c>
@@ -4657,7 +4659,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>141</v>
       </c>
@@ -4671,7 +4673,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>141</v>
       </c>
@@ -4685,7 +4687,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>141</v>
       </c>
@@ -4699,7 +4701,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>141</v>
       </c>
@@ -4713,7 +4715,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>141</v>
       </c>
@@ -4727,7 +4729,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>141</v>
       </c>
@@ -4741,7 +4743,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>141</v>
       </c>
@@ -4755,7 +4757,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>141</v>
       </c>
@@ -4769,7 +4771,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>25</v>
       </c>
@@ -4783,7 +4785,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>141</v>
       </c>
@@ -4797,7 +4799,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>25</v>
       </c>
@@ -4811,7 +4813,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>141</v>
       </c>
@@ -4825,7 +4827,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>141</v>
       </c>
@@ -4839,7 +4841,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>141</v>
       </c>
@@ -4853,7 +4855,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>141</v>
       </c>
@@ -4867,7 +4869,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>141</v>
       </c>
@@ -4881,7 +4883,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>141</v>
       </c>
@@ -4895,7 +4897,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>141</v>
       </c>
@@ -4909,7 +4911,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>141</v>
       </c>
@@ -4923,7 +4925,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>141</v>
       </c>
@@ -4937,7 +4939,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>141</v>
       </c>
@@ -4951,7 +4953,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>113</v>
       </c>
@@ -4965,7 +4967,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>141</v>
       </c>
@@ -4979,7 +4981,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>141</v>
       </c>
@@ -4993,7 +4995,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>177</v>
       </c>
@@ -5007,7 +5009,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>178</v>
       </c>
@@ -5021,7 +5023,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>180</v>
       </c>
@@ -5035,7 +5037,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>141</v>
       </c>
@@ -5049,7 +5051,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>91</v>
       </c>
@@ -5063,7 +5065,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>181</v>
       </c>
@@ -5077,7 +5079,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>141</v>
       </c>
@@ -5091,7 +5093,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>141</v>
       </c>
@@ -5105,7 +5107,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>141</v>
       </c>
@@ -5119,7 +5121,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>182</v>
       </c>
@@ -5133,7 +5135,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>141</v>
       </c>
@@ -5147,7 +5149,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>141</v>
       </c>
@@ -5161,7 +5163,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>141</v>
       </c>
@@ -5175,7 +5177,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>141</v>
       </c>
@@ -5189,7 +5191,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>141</v>
       </c>
@@ -5203,7 +5205,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>33</v>
       </c>
@@ -5217,7 +5219,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>78</v>
       </c>
@@ -5231,7 +5233,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>183</v>
       </c>
@@ -5245,7 +5247,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>25</v>
       </c>
@@ -5259,7 +5261,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>25</v>
       </c>
@@ -5273,7 +5275,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>11</v>
       </c>
@@ -5287,7 +5289,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>185</v>
       </c>
@@ -5301,7 +5303,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>97</v>
       </c>
@@ -5315,7 +5317,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>97</v>
       </c>
@@ -5329,7 +5331,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>93</v>
       </c>
@@ -5343,7 +5345,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>189</v>
       </c>
@@ -5357,7 +5359,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>190</v>
       </c>
@@ -5371,7 +5373,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>191</v>
       </c>
@@ -5385,7 +5387,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>11</v>
       </c>
@@ -5399,7 +5401,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>192</v>
       </c>
@@ -5413,7 +5415,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>194</v>
       </c>
@@ -5427,7 +5429,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>194</v>
       </c>
@@ -5441,7 +5443,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>11</v>
       </c>
@@ -5455,7 +5457,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>10</v>
       </c>
@@ -5469,7 +5471,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>78</v>
       </c>
@@ -5483,7 +5485,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>197</v>
       </c>
@@ -5497,7 +5499,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>197</v>
       </c>
@@ -5511,7 +5513,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>47</v>
       </c>
@@ -5525,7 +5527,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>197</v>
       </c>
@@ -5539,7 +5541,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>97</v>
       </c>
@@ -5553,7 +5555,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>97</v>
       </c>
@@ -5567,7 +5569,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>199</v>
       </c>
@@ -5581,7 +5583,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>201</v>
       </c>
@@ -5595,7 +5597,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>202</v>
       </c>
@@ -5609,7 +5611,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>203</v>
       </c>
@@ -5623,7 +5625,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>204</v>
       </c>
@@ -5637,7 +5639,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>205</v>
       </c>
@@ -5651,7 +5653,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>206</v>
       </c>
@@ -5665,7 +5667,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>156</v>
       </c>
@@ -5679,7 +5681,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>91</v>
       </c>
@@ -5693,7 +5695,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>91</v>
       </c>
@@ -5707,7 +5709,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>25</v>
       </c>
@@ -5721,7 +5723,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>25</v>
       </c>
@@ -5735,7 +5737,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>208</v>
       </c>
@@ -5749,7 +5751,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>209</v>
       </c>
@@ -5763,7 +5765,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>210</v>
       </c>
@@ -5777,7 +5779,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>97</v>
       </c>
@@ -5791,7 +5793,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>97</v>
       </c>
@@ -5805,7 +5807,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>213</v>
       </c>
@@ -5819,7 +5821,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>213</v>
       </c>
@@ -5833,7 +5835,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>215</v>
       </c>
@@ -5847,7 +5849,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>115</v>
       </c>
@@ -5861,7 +5863,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>177</v>
       </c>
@@ -5875,7 +5877,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>79</v>
       </c>
@@ -5889,7 +5891,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>115</v>
       </c>
@@ -5903,7 +5905,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>79</v>
       </c>
@@ -5917,7 +5919,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>79</v>
       </c>
@@ -5931,7 +5933,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>79</v>
       </c>
@@ -5945,7 +5947,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>180</v>
       </c>
@@ -5959,7 +5961,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>113</v>
       </c>
@@ -5973,7 +5975,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>218</v>
       </c>
@@ -5987,7 +5989,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>218</v>
       </c>
@@ -6001,7 +6003,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>218</v>
       </c>
@@ -6015,7 +6017,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>218</v>
       </c>
@@ -6029,7 +6031,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>47</v>
       </c>
@@ -6043,7 +6045,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>220</v>
       </c>
@@ -6057,7 +6059,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>11</v>
       </c>
@@ -6071,7 +6073,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>155</v>
       </c>
@@ -6085,7 +6087,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>78</v>
       </c>
@@ -6099,7 +6101,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>180</v>
       </c>
@@ -6113,7 +6115,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>85</v>
       </c>
@@ -6127,7 +6129,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>222</v>
       </c>
@@ -6141,7 +6143,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>47</v>
       </c>
@@ -6155,7 +6157,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>224</v>
       </c>
@@ -6169,7 +6171,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>227</v>
       </c>
@@ -6183,7 +6185,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>227</v>
       </c>
@@ -6197,7 +6199,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>227</v>
       </c>
@@ -6211,7 +6213,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>227</v>
       </c>
@@ -6225,7 +6227,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>227</v>
       </c>
@@ -6239,7 +6241,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>229</v>
       </c>
@@ -6253,7 +6255,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>113</v>
       </c>
@@ -6267,7 +6269,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>10</v>
       </c>
@@ -6281,7 +6283,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>230</v>
       </c>
@@ -6295,7 +6297,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>231</v>
       </c>
@@ -6309,7 +6311,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>232</v>
       </c>
@@ -6323,7 +6325,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>156</v>
       </c>
@@ -6337,7 +6339,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>159</v>
       </c>
@@ -6351,7 +6353,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>113</v>
       </c>
@@ -6365,7 +6367,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>78</v>
       </c>
@@ -6379,7 +6381,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>113</v>
       </c>
@@ -6393,7 +6395,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>233</v>
       </c>
@@ -6407,7 +6409,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>180</v>
       </c>
@@ -6421,7 +6423,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>234</v>
       </c>
@@ -6435,7 +6437,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>233</v>
       </c>
@@ -6449,7 +6451,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>235</v>
       </c>
@@ -6463,7 +6465,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>236</v>
       </c>
@@ -6477,7 +6479,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>115</v>
       </c>
@@ -6491,7 +6493,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>239</v>
       </c>
@@ -6505,7 +6507,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>235</v>
       </c>
@@ -6519,7 +6521,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>235</v>
       </c>
@@ -6533,7 +6535,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>235</v>
       </c>
@@ -6547,7 +6549,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>235</v>
       </c>
@@ -6561,7 +6563,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>240</v>
       </c>
@@ -6575,7 +6577,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>241</v>
       </c>
@@ -6589,7 +6591,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>121</v>
       </c>
@@ -6603,7 +6605,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>134</v>
       </c>
@@ -6617,7 +6619,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>244</v>
       </c>
@@ -6631,7 +6633,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>244</v>
       </c>
@@ -6645,7 +6647,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>231</v>
       </c>
@@ -6659,7 +6661,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>245</v>
       </c>
@@ -6673,7 +6675,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>246</v>
       </c>
@@ -6687,7 +6689,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>247</v>
       </c>
@@ -6701,7 +6703,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>70</v>
       </c>
@@ -6715,7 +6717,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>248</v>
       </c>
@@ -6729,7 +6731,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>244</v>
       </c>
@@ -6743,7 +6745,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>97</v>
       </c>
@@ -6757,7 +6759,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>227</v>
       </c>
@@ -6771,7 +6773,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>227</v>
       </c>
@@ -6785,7 +6787,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>215</v>
       </c>
@@ -6799,7 +6801,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>227</v>
       </c>
@@ -6813,7 +6815,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>227</v>
       </c>
@@ -6827,7 +6829,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>180</v>
       </c>
@@ -6841,7 +6843,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>180</v>
       </c>
@@ -6855,7 +6857,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>250</v>
       </c>
@@ -6869,7 +6871,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>75</v>
       </c>
@@ -6883,7 +6885,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>17</v>
       </c>
@@ -6897,7 +6899,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>253</v>
       </c>
@@ -6911,7 +6913,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>254</v>
       </c>
@@ -6925,7 +6927,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>227</v>
       </c>
@@ -6939,7 +6941,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>227</v>
       </c>
@@ -6953,7 +6955,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>255</v>
       </c>
@@ -6967,7 +6969,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>256</v>
       </c>
@@ -6981,7 +6983,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>57</v>
       </c>
@@ -6995,7 +6997,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>257</v>
       </c>
@@ -7009,7 +7011,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>259</v>
       </c>
@@ -7023,7 +7025,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>261</v>
       </c>
@@ -7037,7 +7039,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>263</v>
       </c>
@@ -7051,7 +7053,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>264</v>
       </c>
@@ -7065,7 +7067,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>265</v>
       </c>
@@ -7079,7 +7081,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>266</v>
       </c>
@@ -7093,7 +7095,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>61</v>
       </c>
@@ -7107,7 +7109,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>267</v>
       </c>
@@ -7121,7 +7123,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>215</v>
       </c>
@@ -7135,7 +7137,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>25</v>
       </c>
@@ -7149,7 +7151,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>25</v>
       </c>
@@ -7163,7 +7165,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>269</v>
       </c>
@@ -7177,7 +7179,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>227</v>
       </c>
@@ -7191,7 +7193,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>227</v>
       </c>
@@ -7205,7 +7207,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>273</v>
       </c>
@@ -7219,7 +7221,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>277</v>
       </c>
@@ -7233,7 +7235,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>182</v>
       </c>
@@ -7247,7 +7249,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>279</v>
       </c>
@@ -7261,7 +7263,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>281</v>
       </c>
@@ -7275,7 +7277,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>25</v>
       </c>
@@ -7289,7 +7291,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>165</v>
       </c>
@@ -7303,7 +7305,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>25</v>
       </c>
@@ -7317,7 +7319,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>227</v>
       </c>
@@ -7331,7 +7333,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>227</v>
       </c>
@@ -7345,7 +7347,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>79</v>
       </c>
@@ -7359,7 +7361,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>79</v>
       </c>
@@ -7373,7 +7375,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>93</v>
       </c>
@@ -7387,7 +7389,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>165</v>
       </c>
@@ -7401,7 +7403,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>165</v>
       </c>
@@ -7415,7 +7417,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>69</v>
       </c>
@@ -7429,7 +7431,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>222</v>
       </c>
@@ -7443,7 +7445,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>93</v>
       </c>
@@ -7457,7 +7459,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>215</v>
       </c>
@@ -7471,7 +7473,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>284</v>
       </c>
@@ -7485,7 +7487,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>41</v>
       </c>
@@ -7499,7 +7501,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>215</v>
       </c>
@@ -7513,7 +7515,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>25</v>
       </c>
@@ -7527,7 +7529,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>25</v>
       </c>
@@ -7541,7 +7543,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>25</v>
       </c>
@@ -7555,7 +7557,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>25</v>
       </c>
@@ -7569,7 +7571,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
         <v>79</v>
       </c>
@@ -7583,7 +7585,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
         <v>286</v>
       </c>
@@ -7597,7 +7599,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
         <v>79</v>
       </c>
@@ -7611,7 +7613,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
         <v>286</v>
       </c>
@@ -7625,7 +7627,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
         <v>79</v>
       </c>
@@ -7639,7 +7641,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
         <v>79</v>
       </c>
@@ -7653,7 +7655,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
         <v>286</v>
       </c>
@@ -7667,7 +7669,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
         <v>286</v>
       </c>
@@ -7681,7 +7683,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
         <v>97</v>
       </c>
@@ -7695,7 +7697,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
         <v>213</v>
       </c>
@@ -7709,7 +7711,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
         <v>286</v>
       </c>
@@ -7723,7 +7725,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
         <v>93</v>
       </c>
@@ -7737,7 +7739,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
         <v>79</v>
       </c>
@@ -7751,7 +7753,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
         <v>79</v>
       </c>
@@ -7765,7 +7767,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
         <v>233</v>
       </c>
@@ -7779,7 +7781,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
         <v>289</v>
       </c>
@@ -7793,7 +7795,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
         <v>290</v>
       </c>
@@ -7807,7 +7809,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
         <v>286</v>
       </c>
@@ -7821,7 +7823,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
         <v>79</v>
       </c>
@@ -7835,7 +7837,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
         <v>79</v>
       </c>
@@ -7849,7 +7851,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
         <v>286</v>
       </c>
@@ -7863,7 +7865,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
         <v>292</v>
       </c>
@@ -7877,7 +7879,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
         <v>218</v>
       </c>
@@ -7891,7 +7893,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
         <v>218</v>
       </c>
@@ -7905,7 +7907,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
         <v>218</v>
       </c>
@@ -7919,7 +7921,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
         <v>218</v>
       </c>
@@ -7933,7 +7935,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
         <v>213</v>
       </c>
@@ -7947,7 +7949,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
         <v>93</v>
       </c>
@@ -7961,7 +7963,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
         <v>273</v>
       </c>
@@ -7975,7 +7977,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
         <v>218</v>
       </c>
@@ -7989,7 +7991,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
         <v>25</v>
       </c>
@@ -8003,7 +8005,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
         <v>218</v>
       </c>
@@ -8017,7 +8019,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
         <v>218</v>
       </c>
@@ -8031,7 +8033,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A478" t="s">
         <v>296</v>
       </c>
@@ -8045,7 +8047,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A479" t="s">
         <v>93</v>
       </c>
@@ -8059,7 +8061,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A480" t="s">
         <v>25</v>
       </c>
@@ -8073,7 +8075,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A481" t="s">
         <v>215</v>
       </c>
@@ -8087,7 +8089,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A482" t="s">
         <v>300</v>
       </c>
@@ -8101,7 +8103,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A483" t="s">
         <v>215</v>
       </c>
@@ -8115,7 +8117,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A484" t="s">
         <v>218</v>
       </c>
@@ -8129,7 +8131,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A485" t="s">
         <v>218</v>
       </c>
@@ -8143,7 +8145,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A486" t="s">
         <v>301</v>
       </c>
@@ -8157,7 +8159,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A487" t="s">
         <v>302</v>
       </c>
@@ -8171,7 +8173,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A488" t="s">
         <v>303</v>
       </c>
@@ -8185,7 +8187,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A489" t="s">
         <v>304</v>
       </c>
@@ -8199,7 +8201,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A490" t="s">
         <v>305</v>
       </c>
@@ -8213,7 +8215,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A491" t="s">
         <v>306</v>
       </c>
@@ -8227,7 +8229,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A492" t="s">
         <v>307</v>
       </c>
@@ -8241,7 +8243,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A493" t="s">
         <v>308</v>
       </c>
@@ -8255,7 +8257,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A494" t="s">
         <v>309</v>
       </c>
@@ -8269,7 +8271,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A495" t="s">
         <v>310</v>
       </c>
@@ -8283,7 +8285,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A496" t="s">
         <v>169</v>
       </c>
@@ -8297,7 +8299,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A497" t="s">
         <v>311</v>
       </c>
@@ -8311,7 +8313,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A498" t="s">
         <v>215</v>
       </c>
@@ -8325,7 +8327,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A499" t="s">
         <v>213</v>
       </c>
@@ -8339,7 +8341,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A500" t="s">
         <v>312</v>
       </c>
